--- a/docs/lista_alocacao.xlsx
+++ b/docs/lista_alocacao.xlsx
@@ -393,7 +393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CFT</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>PLT</t>
         </is>
       </c>
     </row>
